--- a/src/utils/trajectories_10133_2008-02-04.xlsx
+++ b/src/utils/trajectories_10133_2008-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278" count="278">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240" count="240">
   <x:si>
     <x:t>taxi_id</x:t>
   </x:si>
@@ -31,823 +31,709 @@
     <x:t>id</x:t>
   </x:si>
   <x:si>
-    <x:t>Sun Feb 03 2008 19:02:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:05:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:07:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:11:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:15:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:16:28 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:21:30 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:45:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:46:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:50:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:16:14 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:19:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:21:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:26:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:29:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:31:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:31:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:36:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:37:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:42:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:44:37 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:46:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 02:55:42 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 02:59:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:00:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:05:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:09:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:10:47 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:15:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:19:37 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:20:50 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:25:52 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:29:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:30:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:35:55 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:39:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:40:57 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:45:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:49:47 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:51:00 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:56:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:56:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 03:59:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:03:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:08:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:09:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:13:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:28:11 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:30:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:37:47 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:40:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:42:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:47:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 04:50:07 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:00:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:03:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:32:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:32:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:38:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:42:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:43:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:48:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 05:52:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:00:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:02:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:05:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:10:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:12:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:15:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:20:50 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:25:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:25:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:30:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:32:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:40:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:42:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:48:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:53:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:53:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 06:58:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:03:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:03:40 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:08:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:13:09 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:18:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:28:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:28:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:33:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:37:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:38:37 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:43:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:47:24 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:48:40 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:57:27 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:01:24 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:06:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:07:30 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:11:27 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:16:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:17:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:21:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:26:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:27:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:31:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:36:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:37:40 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:47:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:51:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:56:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:57:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:07:50 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:17:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:21:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:26:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:27:56 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:36:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:38:00 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:41:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:46:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:48:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:51:11 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:56:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:58:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:01:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:06:16 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:08:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:08:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:11:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:16:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:18:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:21:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:26:23 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:36:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:38:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:41:28 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:46:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:48:23 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:51:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:56:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:56:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:58:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:01:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:06:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:08:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:11:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:16:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:18:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:21:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:26:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:28:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:31:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:36:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:38:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:41:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:46:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:48:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:51:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:56:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:58:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:01:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:06:56 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:08:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:11:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:16:59 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:18:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:22:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:27:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:28:55 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:32:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:37:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:38:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:42:07 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:47:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:49:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:52:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:57:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:59:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:02:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:02:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:07:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:09:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:12:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:17:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:19:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:22:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:29:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:39:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:44:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:49:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:49:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:54:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:59:22 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:59:25 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:09:28 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:11:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:16:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:19:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:19:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:29:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:31:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:36:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:39:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:41:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:46:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:49:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:51:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:56:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:59:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:01:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:06:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:09:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:11:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:16:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:19:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:21:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:26:56 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:29:55 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:31:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:31:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:36:59 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:39:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:47:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:50:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:52:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:57:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:00:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:02:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:07:09 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:10:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:17:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:22:14 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:29:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:49:56 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:54:57 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:56:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:59:59 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:05:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:06:52 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:10:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:15:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:16:55 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:20:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:25:07 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:26:59 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:30:09 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:37:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:37:30 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:42:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:47:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:47:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:52:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:57:08 GMT-0500 (hora estándar de Perú)</x:t>
+    <x:t>Sun Feb 03 2008 19:33:38 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 19:03:29 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:01:52 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 19:43:41 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 19:53:44 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 19:23:35 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:13:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:03:48 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 19:33:38 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 19:13:32 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:06:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:23:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:53:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:36:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:23:20 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:03:13 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:32:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:33:22 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:13:16 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:31:26 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:18:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 20:33:58 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 23:25:00 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:13:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:36:27 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:46:31 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 21:43:25 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 23:45:05 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 23:52:32 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:11:26 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:02:02 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:07:04 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 23:35:02 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:46:39 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:21:30 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:50:41 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 23:57:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Feb 03 2008 23:55:09 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:21:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:15:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:45:39 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:19:02 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:16:14 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:05:12 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:29:06 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:31:19 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:31:19 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:36:20 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 02:42:45 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 00:16:28 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 02:37:44 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 02:46:21 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 07:55:42 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:00:43 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 02:44:37 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 07:59:31 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:09:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:30:53 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:39:44 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:05:45 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:19:37 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:15:48 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:49:47 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:10:47 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:51:00 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:25:52 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:35:55 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:29:41 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 01:26:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:56:02 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:20:50 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:09:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:47:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:13:18 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:37:47 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:00:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:30:01 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:59:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:08:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:56:02 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:40:04 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:03:18 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:28:11 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:03:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:32:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:50:07 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:32:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 09:42:49 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:42:38 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:00:43 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:45:58 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:10:46 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:52:41 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:48:35 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:12:48 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:20:50 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:43:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:25:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:15:48 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:02:44 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 10:38:32 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 08:40:57 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:05:45 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:25:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:30:53 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:32:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:48:35 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:42:58 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:58:38 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:53:01 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:40:05 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:37:21 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:08:41 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:28:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 11:53:36 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:03:40 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:03:04 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:47:24 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:28:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:13:09 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:33:35 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:43:38 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:57:27 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:48:40 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:07:30 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:17:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:38:37 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:16:29 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 12:18:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:11:27 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:06:26 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:36:36 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:01:24 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:27:36 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:26:32 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:21:31 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:51:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:37:40 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:47:43 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:56:12 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:21:53 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:38:00 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:26:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:17:53 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:08:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:27:56 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:56:13 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:07:50 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:57:46 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:48:03 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:01:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:36:06 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:41:08 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:06:16 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:46:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:58:06 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:08:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:48:23 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 13:31:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 14:51:11 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:21:21 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:38:20 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:16:20 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:18:13 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:26:23 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:46:29 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:11:18 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:51:31 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:08:29 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:41:28 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:58:26 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:36:26 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:06:36 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:56:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:28:36 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:16:39 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:11:38 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:18:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:51:51 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:56:53 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:38:39 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:36:46 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:21:41 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:41:48 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:01:34 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 15:56:33 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:31:44 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:48:43 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:26:43 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:46:49 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:01:54 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:11:58 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:18:53 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:06:56 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:08:49 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:22:01 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 16:58:46 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:27:03 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:37:05 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:32:03 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:16:59 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:28:55 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:38:58 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:42:07 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:47:08 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:49:02 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:52:10 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:07:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:57:12 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:19:12 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:17:18 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 17:59:05 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:02:13 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:02:13 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:44:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:09:08 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:29:15 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:49:21 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:59:22 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:12:17 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:39:18 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:22:20 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:59:25 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:54:20 GMT-0500 (hora estándar de Perú)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Feb 04 2008 18:49:19 GMT-0500 (hora estándar de Perú)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1235,13 +1121,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>116.50194</x:v>
+        <x:v>116.47113</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>39.89026</x:v>
+        <x:v>39.90371</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>291</x:v>
+        <x:v>10292610</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -1252,13 +1138,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>116.49648</x:v>
+        <x:v>116.42258</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>39.89197</x:v>
+        <x:v>39.94832</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>10292613</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -1269,13 +1155,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>116.48449</x:v>
+        <x:v>116.50749</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>39.892</x:v>
+        <x:v>39.89643</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>293</x:v>
+        <x:v>10292614</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -1286,13 +1172,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>116.47177</x:v>
+        <x:v>116.47234</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>39.90339</x:v>
+        <x:v>39.90375</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>10292617</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -1303,13 +1189,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>116.46911</x:v>
+        <x:v>116.48368</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>39.90714</x:v>
+        <x:v>39.90053</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>10292619</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -1320,13 +1206,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>116.46323</x:v>
+        <x:v>116.42612</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>39.90719</x:v>
+        <x:v>39.90602</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>10292620</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -1337,13 +1223,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>116.42116</x:v>
+        <x:v>116.47179</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>39.90715</x:v>
+        <x:v>39.89194</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>10292621</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1354,13 +1240,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>116.31288</x:v>
+        <x:v>116.50694</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>39.88705</x:v>
+        <x:v>39.89782</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>10292622</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -1371,13 +1257,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>116.30911</x:v>
+        <x:v>116.47113</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>39.88561</x:v>
+        <x:v>39.90371</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>299</x:v>
+        <x:v>10292623</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -1388,13 +1274,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>116.2583</x:v>
+        <x:v>116.42822</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>39.86736</x:v>
+        <x:v>39.92235</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>10292625</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1405,13 +1291,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>116.14127</x:v>
+        <x:v>116.4966</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>39.72741</x:v>
+        <x:v>39.89771</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>301</x:v>
+        <x:v>10292626</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1422,13 +1308,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>116.14111</x:v>
+        <x:v>116.45005</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>39.72728</x:v>
+        <x:v>39.89227</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>10292627</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1439,13 +1325,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>116.14118</x:v>
+        <x:v>116.37268</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>39.72731</x:v>
+        <x:v>39.88796</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>303</x:v>
+        <x:v>10292628</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1456,13 +1342,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>116.14362</x:v>
+        <x:v>116.40458</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>39.71673</x:v>
+        <x:v>39.89207</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>304</x:v>
+        <x:v>10292629</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1473,13 +1359,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>116.14436</x:v>
+        <x:v>116.278</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>39.71465</x:v>
+        <x:v>39.84426</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>305</x:v>
+        <x:v>10292630</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1490,13 +1376,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>116.14361</x:v>
+        <x:v>116.34882</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>39.71458</x:v>
+        <x:v>39.8671</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>306</x:v>
+        <x:v>10292631</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1507,13 +1393,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>116.14361</x:v>
+        <x:v>116.41121</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>39.71458</x:v>
+        <x:v>39.8918</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>10292632</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1524,13 +1410,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>116.14139</x:v>
+        <x:v>116.2809</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>39.68008</x:v>
+        <x:v>39.86053</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>10292633</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1541,13 +1427,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.29624</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.83079</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>309</x:v>
+        <x:v>10292634</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1558,13 +1444,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.27744</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.85355</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>10292635</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1575,13 +1461,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.28618</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.83526</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>311</x:v>
+        <x:v>10292636</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1592,13 +1478,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.40846</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.89171</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>312</x:v>
+        <x:v>10292637</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1609,13 +1495,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.33167</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.89607</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>10292638</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1626,13 +1512,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.29541</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.83096</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>314</x:v>
+        <x:v>10292639</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1643,13 +1529,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.28637</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.8649</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>315</x:v>
+        <x:v>10292640</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1660,13 +1546,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.2783</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.89573</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>316</x:v>
+        <x:v>10292641</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1677,13 +1563,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.2694</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.88212</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>317</x:v>
+        <x:v>10292642</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1694,13 +1580,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>116.14138</x:v>
+        <x:v>116.46057</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>39.68001</x:v>
+        <x:v>39.90336</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>318</x:v>
+        <x:v>10292643</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1711,13 +1597,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>116.14456</x:v>
+        <x:v>116.5046</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>39.67667</x:v>
+        <x:v>39.89906</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>319</x:v>
+        <x:v>10292644</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -1728,13 +1614,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>116.14474</x:v>
+        <x:v>116.47177</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>39.67895</x:v>
+        <x:v>39.90339</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>320</x:v>
+        <x:v>10292645</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1745,13 +1631,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>116.15718</x:v>
+        <x:v>116.50194</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>39.6838</x:v>
+        <x:v>39.89026</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>321</x:v>
+        <x:v>10292646</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1762,13 +1648,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>116.15585</x:v>
+        <x:v>116.48449</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>39.68382</x:v>
+        <x:v>39.892</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>322</x:v>
+        <x:v>10292647</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
@@ -1779,13 +1665,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>116.16558</x:v>
+        <x:v>116.39308</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>39.67938</x:v>
+        <x:v>39.89888</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>323</x:v>
+        <x:v>10292648</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -1796,13 +1682,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>116.16562</x:v>
+        <x:v>116.30911</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>39.67936</x:v>
+        <x:v>39.88561</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>324</x:v>
+        <x:v>10292649</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -1813,13 +1699,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>116.16562</x:v>
+        <x:v>116.42116</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>39.67934</x:v>
+        <x:v>39.90715</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>325</x:v>
+        <x:v>10292650</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
@@ -1830,13 +1716,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>116.1656</x:v>
+        <x:v>116.2583</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>39.67938</x:v>
+        <x:v>39.86736</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>326</x:v>
+        <x:v>10292651</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
@@ -1847,13 +1733,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>116.16563</x:v>
+        <x:v>116.49658</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>39.6794</x:v>
+        <x:v>39.89676</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>327</x:v>
+        <x:v>10292652</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -1864,13 +1750,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>116.16561</x:v>
+        <x:v>116.50464</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>39.67937</x:v>
+        <x:v>39.89817</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>328</x:v>
+        <x:v>10292653</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -1881,13 +1767,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>116.16151</x:v>
+        <x:v>116.14118</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>39.67815</x:v>
+        <x:v>39.72731</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>329</x:v>
+        <x:v>10292654</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
@@ -1898,13 +1784,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>116.15831</x:v>
+        <x:v>116.46911</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>39.68076</x:v>
+        <x:v>39.90714</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>10292655</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
@@ -1915,13 +1801,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>116.15296</x:v>
+        <x:v>116.31288</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>39.67856</x:v>
+        <x:v>39.88705</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>331</x:v>
+        <x:v>10292656</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
@@ -1932,13 +1818,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>116.14375</x:v>
+        <x:v>116.14111</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>39.71201</x:v>
+        <x:v>39.72728</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>332</x:v>
+        <x:v>10292657</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
@@ -1949,13 +1835,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>116.13585</x:v>
+        <x:v>116.14127</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>39.72938</x:v>
+        <x:v>39.72741</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>333</x:v>
+        <x:v>10292658</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
@@ -1966,13 +1852,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>116.13586</x:v>
+        <x:v>116.49648</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>39.73599</x:v>
+        <x:v>39.89197</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>10292659</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
@@ -1983,13 +1869,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>116.14062</x:v>
+        <x:v>116.14436</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>39.75676</x:v>
+        <x:v>39.71465</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>335</x:v>
+        <x:v>10292660</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
@@ -2000,13 +1886,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>116.19</x:v>
+        <x:v>116.14361</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>39.78702</x:v>
+        <x:v>39.71458</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>10292661</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
@@ -2017,13 +1903,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>116.19669</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>39.80474</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>10292662</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
@@ -2034,13 +1920,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>116.21926</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>39.84439</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>338</x:v>
+        <x:v>10292663</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
@@ -2051,13 +1937,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>116.25857</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>39.86744</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>10292664</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
@@ -2068,13 +1954,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>116.27261</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>39.87428</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>340</x:v>
+        <x:v>10292665</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
@@ -2085,13 +1971,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>116.30151</x:v>
+        <x:v>116.14361</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>39.87889</x:v>
+        <x:v>39.71458</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>341</x:v>
+        <x:v>10292666</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
@@ -2102,13 +1988,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>116.30151</x:v>
+        <x:v>116.14139</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>39.87889</x:v>
+        <x:v>39.68008</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>10292667</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
@@ -2119,13 +2005,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>116.30253</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>39.88235</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>343</x:v>
+        <x:v>10292668</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
@@ -2136,13 +2022,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>116.30457</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>39.88979</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>344</x:v>
+        <x:v>10292669</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
@@ -2153,13 +2039,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>116.30519</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>39.89498</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>10292670</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
@@ -2170,13 +2056,13 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>116.30646</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>39.89511</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>346</x:v>
+        <x:v>10292671</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
@@ -2187,13 +2073,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>116.31342</x:v>
+        <x:v>116.14474</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>39.89548</x:v>
+        <x:v>39.67895</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>347</x:v>
+        <x:v>10292672</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
@@ -2204,13 +2090,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>116.36791</x:v>
+        <x:v>116.46323</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>39.89784</x:v>
+        <x:v>39.90719</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>10292673</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
@@ -2221,13 +2107,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>116.36817</x:v>
+        <x:v>116.14456</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>39.89399</x:v>
+        <x:v>39.67667</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>10292674</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
@@ -2238,13 +2124,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>116.36498</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>39.88808</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>10292675</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
@@ -2255,13 +2141,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>116.35584</x:v>
+        <x:v>116.15585</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>39.88807</x:v>
+        <x:v>39.68382</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>10292676</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
@@ -2272,13 +2158,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>116.34691</x:v>
+        <x:v>116.16558</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>39.8906</x:v>
+        <x:v>39.67938</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>352</x:v>
+        <x:v>10292677</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
@@ -2289,13 +2175,13 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>116.3468</x:v>
+        <x:v>116.14138</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>39.89775</x:v>
+        <x:v>39.68001</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>10292678</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
@@ -2306,13 +2192,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>116.34688</x:v>
+        <x:v>116.16562</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>39.89178</x:v>
+        <x:v>39.67934</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>354</x:v>
+        <x:v>10292679</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
@@ -2323,13 +2209,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>116.37777</x:v>
+        <x:v>116.15718</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>39.88796</x:v>
+        <x:v>39.6838</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>355</x:v>
+        <x:v>10292680</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
@@ -2340,13 +2226,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>116.38698</x:v>
+        <x:v>116.16562</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>39.88459</x:v>
+        <x:v>39.67936</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>356</x:v>
+        <x:v>10292681</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
@@ -2357,13 +2243,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>116.38094</x:v>
+        <x:v>116.16563</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>39.85518</x:v>
+        <x:v>39.6794</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>357</x:v>
+        <x:v>10292682</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
@@ -2374,13 +2260,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>116.38094</x:v>
+        <x:v>116.13586</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>39.85518</x:v>
+        <x:v>39.73599</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>10292683</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
@@ -2391,13 +2277,13 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>116.40035</x:v>
+        <x:v>116.19</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>39.85592</x:v>
+        <x:v>39.78702</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>359</x:v>
+        <x:v>10292684</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
@@ -2408,13 +2294,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>116.39379</x:v>
+        <x:v>116.1656</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>39.86511</x:v>
+        <x:v>39.67938</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>10292685</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
@@ -2425,13 +2311,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>116.39399</x:v>
+        <x:v>116.15831</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>39.86971</x:v>
+        <x:v>39.68076</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>361</x:v>
+        <x:v>10292686</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
@@ -2442,13 +2328,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>116.39296</x:v>
+        <x:v>116.16151</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>39.87927</x:v>
+        <x:v>39.67815</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>362</x:v>
+        <x:v>10292687</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
@@ -2459,13 +2345,13 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>116.39238</x:v>
+        <x:v>116.25857</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>39.87958</x:v>
+        <x:v>39.86744</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>10292688</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
@@ -2476,13 +2362,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>116.37859</x:v>
+        <x:v>116.16561</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>39.88987</x:v>
+        <x:v>39.67937</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>10292689</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
@@ -2493,13 +2379,13 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>116.37821</x:v>
+        <x:v>116.27261</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>39.89548</x:v>
+        <x:v>39.87428</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>10292690</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
@@ -2510,13 +2396,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>116.3753</x:v>
+        <x:v>116.14375</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>39.88832</x:v>
+        <x:v>39.71201</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>10292691</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
@@ -2527,13 +2413,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>116.37027</x:v>
+        <x:v>116.14062</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>39.89335</x:v>
+        <x:v>39.75676</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>10292692</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
@@ -2544,13 +2430,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>116.36829</x:v>
+        <x:v>116.13585</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>39.89728</x:v>
+        <x:v>39.72938</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>10292693</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
@@ -2561,13 +2447,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
-        <x:v>116.36802</x:v>
+        <x:v>116.14362</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>39.90485</x:v>
+        <x:v>39.71673</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>369</x:v>
+        <x:v>10292694</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
@@ -2578,13 +2464,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
-        <x:v>116.36124</x:v>
+        <x:v>116.30151</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>39.91057</x:v>
+        <x:v>39.87889</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>370</x:v>
+        <x:v>10292695</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
@@ -2595,13 +2481,13 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>116.35063</x:v>
+        <x:v>116.15296</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>39.91633</x:v>
+        <x:v>39.67856</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>371</x:v>
+        <x:v>10292696</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
@@ -2612,13 +2498,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>116.35063</x:v>
+        <x:v>116.30646</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>39.91633</x:v>
+        <x:v>39.89511</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>372</x:v>
+        <x:v>10292697</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
@@ -2629,13 +2515,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>116.34998</x:v>
+        <x:v>116.3468</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>39.93063</x:v>
+        <x:v>39.89775</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>373</x:v>
+        <x:v>10292698</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
@@ -2646,13 +2532,13 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>116.34974</x:v>
+        <x:v>116.31342</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>39.93442</x:v>
+        <x:v>39.89548</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>374</x:v>
+        <x:v>10292699</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
@@ -2663,13 +2549,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
-        <x:v>116.34934</x:v>
+        <x:v>116.36498</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>39.95192</x:v>
+        <x:v>39.88808</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>375</x:v>
+        <x:v>10292700</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
@@ -2680,13 +2566,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
-        <x:v>116.34897</x:v>
+        <x:v>116.37777</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>39.9586</x:v>
+        <x:v>39.88796</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>376</x:v>
+        <x:v>10292701</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
@@ -2697,13 +2583,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
-        <x:v>116.37041</x:v>
+        <x:v>116.36817</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>39.96634</x:v>
+        <x:v>39.89399</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>377</x:v>
+        <x:v>10292702</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
@@ -2714,13 +2600,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
-        <x:v>116.36549</x:v>
+        <x:v>116.30253</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>39.95665</x:v>
+        <x:v>39.88235</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>378</x:v>
+        <x:v>10292703</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
@@ -2731,13 +2617,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
-        <x:v>116.36518</x:v>
+        <x:v>116.30519</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>39.95664</x:v>
+        <x:v>39.89498</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>379</x:v>
+        <x:v>10292704</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
@@ -2748,13 +2634,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
-        <x:v>116.3497</x:v>
+        <x:v>116.30151</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>39.94872</x:v>
+        <x:v>39.87889</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>380</x:v>
+        <x:v>10292705</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
@@ -2765,13 +2651,13 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
-        <x:v>116.34215</x:v>
+        <x:v>116.35584</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>39.93847</x:v>
+        <x:v>39.88807</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>381</x:v>
+        <x:v>10292706</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
@@ -2782,13 +2668,13 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>116.33928</x:v>
+        <x:v>116.38698</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>39.93735</x:v>
+        <x:v>39.88459</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>382</x:v>
+        <x:v>10292707</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
@@ -2799,13 +2685,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
-        <x:v>116.34323</x:v>
+        <x:v>116.36791</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>39.92693</x:v>
+        <x:v>39.89784</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>383</x:v>
+        <x:v>10292708</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
@@ -2816,13 +2702,13 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
-        <x:v>116.34025</x:v>
+        <x:v>116.30457</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>39.92229</x:v>
+        <x:v>39.88979</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>10292709</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
@@ -2833,13 +2719,13 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="C96" s="0" t="n">
-        <x:v>116.34025</x:v>
+        <x:v>116.38094</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>39.92234</x:v>
+        <x:v>39.85518</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>385</x:v>
+        <x:v>10292710</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
@@ -2850,13 +2736,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="C97" s="0" t="n">
-        <x:v>116.33817</x:v>
+        <x:v>116.34688</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>39.9239</x:v>
+        <x:v>39.89178</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>386</x:v>
+        <x:v>10292711</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
@@ -2867,13 +2753,13 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
-        <x:v>116.33817</x:v>
+        <x:v>116.38094</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>39.9239</x:v>
+        <x:v>39.85518</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>387</x:v>
+        <x:v>10292712</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
@@ -2884,13 +2770,13 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="C99" s="0" t="n">
-        <x:v>116.32828</x:v>
+        <x:v>116.34691</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>39.92688</x:v>
+        <x:v>39.8906</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>388</x:v>
+        <x:v>10292713</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
@@ -2901,13 +2787,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
-        <x:v>116.31624</x:v>
+        <x:v>116.39379</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>39.92682</x:v>
+        <x:v>39.86511</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>389</x:v>
+        <x:v>10292714</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
@@ -2918,13 +2804,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
-        <x:v>116.31445</x:v>
+        <x:v>116.37859</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>39.92686</x:v>
+        <x:v>39.88987</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>390</x:v>
+        <x:v>10292715</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
@@ -2935,13 +2821,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
-        <x:v>116.3039</x:v>
+        <x:v>116.21926</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>39.92049</x:v>
+        <x:v>39.84439</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>391</x:v>
+        <x:v>10292716</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
@@ -2952,13 +2838,13 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="C103" s="0" t="n">
-        <x:v>116.30231</x:v>
+        <x:v>116.37027</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>39.90674</x:v>
+        <x:v>39.89335</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
-        <x:v>392</x:v>
+        <x:v>10292717</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5">
@@ -2969,13 +2855,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C104" s="0" t="n">
-        <x:v>116.30395</x:v>
+        <x:v>116.39238</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
-        <x:v>39.90156</x:v>
+        <x:v>39.87958</x:v>
       </x:c>
       <x:c r="E104" s="0" t="n">
-        <x:v>393</x:v>
+        <x:v>10292718</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
@@ -2986,13 +2872,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C105" s="0" t="n">
-        <x:v>116.31487</x:v>
+        <x:v>116.39296</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
-        <x:v>39.88714</x:v>
+        <x:v>39.87927</x:v>
       </x:c>
       <x:c r="E105" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>10292719</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
@@ -3003,13 +2889,13 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="C106" s="0" t="n">
-        <x:v>116.31507</x:v>
+        <x:v>116.36829</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>39.88625</x:v>
+        <x:v>39.89728</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>10292720</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
@@ -3020,13 +2906,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="C107" s="0" t="n">
-        <x:v>116.31511</x:v>
+        <x:v>116.36124</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>39.88872</x:v>
+        <x:v>39.91057</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
-        <x:v>396</x:v>
+        <x:v>10292721</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
@@ -3037,13 +2923,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="C108" s="0" t="n">
-        <x:v>116.31294</x:v>
+        <x:v>116.39399</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>39.8874</x:v>
+        <x:v>39.86971</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>10292722</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
@@ -3054,13 +2940,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C109" s="0" t="n">
-        <x:v>116.2986</x:v>
+        <x:v>116.35063</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>39.88107</x:v>
+        <x:v>39.91633</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
-        <x:v>398</x:v>
+        <x:v>10292723</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
@@ -3071,13 +2957,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="C110" s="0" t="n">
-        <x:v>116.29368</x:v>
+        <x:v>116.36802</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
-        <x:v>39.88524</x:v>
+        <x:v>39.90485</x:v>
       </x:c>
       <x:c r="E110" s="0" t="n">
-        <x:v>399</x:v>
+        <x:v>10292724</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
@@ -3088,13 +2974,13 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C111" s="0" t="n">
-        <x:v>116.29364</x:v>
+        <x:v>116.37821</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
-        <x:v>39.88522</x:v>
+        <x:v>39.89548</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>10292725</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:5">
@@ -3105,13 +2991,13 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="C112" s="0" t="n">
-        <x:v>116.29371</x:v>
+        <x:v>116.40035</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>39.88526</x:v>
+        <x:v>39.85592</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>10292726</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:5">
@@ -3122,13 +3008,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="C113" s="0" t="n">
-        <x:v>116.29373</x:v>
+        <x:v>116.19669</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
-        <x:v>39.8853</x:v>
+        <x:v>39.80474</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>10292727</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:5">
@@ -3139,13 +3025,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
-        <x:v>116.29373</x:v>
+        <x:v>116.3753</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>39.8852</x:v>
+        <x:v>39.88832</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
-        <x:v>403</x:v>
+        <x:v>10292728</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
@@ -3156,13 +3042,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="C115" s="0" t="n">
-        <x:v>116.29367</x:v>
+        <x:v>116.35063</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>39.88523</x:v>
+        <x:v>39.91633</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>10292729</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:5">
@@ -3173,13 +3059,13 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="C116" s="0" t="n">
-        <x:v>116.2968</x:v>
+        <x:v>116.34998</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>39.88537</x:v>
+        <x:v>39.93063</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>10292730</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
@@ -3190,13 +3076,13 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="C117" s="0" t="n">
-        <x:v>116.29676</x:v>
+        <x:v>116.34974</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>39.88532</x:v>
+        <x:v>39.93442</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
-        <x:v>406</x:v>
+        <x:v>10292731</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:5">
@@ -3207,13 +3093,13 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>116.30875</x:v>
+        <x:v>116.37041</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>39.89551</x:v>
+        <x:v>39.96634</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>10292732</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
@@ -3224,13 +3110,13 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
-        <x:v>116.31978</x:v>
+        <x:v>116.34897</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>39.89549</x:v>
+        <x:v>39.9586</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>10292733</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
@@ -3241,13 +3127,13 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="C120" s="0" t="n">
-        <x:v>116.31485</x:v>
+        <x:v>116.3497</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>39.89599</x:v>
+        <x:v>39.94872</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
-        <x:v>409</x:v>
+        <x:v>10292734</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:5">
@@ -3258,13 +3144,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="C121" s="0" t="n">
-        <x:v>116.3053</x:v>
+        <x:v>116.36549</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>39.89663</x:v>
+        <x:v>39.95665</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
-        <x:v>410</x:v>
+        <x:v>10292735</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
@@ -3275,13 +3161,13 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="C122" s="0" t="n">
-        <x:v>116.26947</x:v>
+        <x:v>116.34934</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>39.90629</x:v>
+        <x:v>39.95192</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
-        <x:v>411</x:v>
+        <x:v>10292736</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:5">
@@ -3292,13 +3178,13 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="C123" s="0" t="n">
-        <x:v>116.23009</x:v>
+        <x:v>116.31624</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>39.90625</x:v>
+        <x:v>39.92682</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
-        <x:v>412</x:v>
+        <x:v>10292737</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
@@ -3309,13 +3195,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>116.20228</x:v>
+        <x:v>116.34323</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>39.90752</x:v>
+        <x:v>39.92693</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
-        <x:v>413</x:v>
+        <x:v>10292738</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
@@ -3326,13 +3212,13 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="C125" s="0" t="n">
-        <x:v>116.19824</x:v>
+        <x:v>116.33817</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>39.90954</x:v>
+        <x:v>39.9239</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>10292739</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
@@ -3343,13 +3229,13 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="C126" s="0" t="n">
-        <x:v>116.20044</x:v>
+        <x:v>116.36518</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
-        <x:v>39.91295</x:v>
+        <x:v>39.95664</x:v>
       </x:c>
       <x:c r="E126" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>10292740</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:5">
@@ -3360,13 +3246,13 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="C127" s="0" t="n">
-        <x:v>116.17663</x:v>
+        <x:v>116.33928</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>39.92724</x:v>
+        <x:v>39.93735</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
-        <x:v>416</x:v>
+        <x:v>10292741</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5">
@@ -3377,13 +3263,13 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="C128" s="0" t="n">
-        <x:v>116.17914</x:v>
+        <x:v>116.34215</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>39.92713</x:v>
+        <x:v>39.93847</x:v>
       </x:c>
       <x:c r="E128" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>10292742</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:5">
@@ -3394,13 +3280,13 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="C129" s="0" t="n">
-        <x:v>116.18553</x:v>
+        <x:v>116.30231</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>39.92783</x:v>
+        <x:v>39.90674</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
-        <x:v>418</x:v>
+        <x:v>10292743</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
@@ -3411,13 +3297,13 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="C130" s="0" t="n">
-        <x:v>116.192</x:v>
+        <x:v>116.33817</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>39.92964</x:v>
+        <x:v>39.9239</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
-        <x:v>419</x:v>
+        <x:v>10292744</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5">
@@ -3428,13 +3314,13 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="C131" s="0" t="n">
-        <x:v>116.19359</x:v>
+        <x:v>116.34025</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>39.93623</x:v>
+        <x:v>39.92229</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
-        <x:v>420</x:v>
+        <x:v>10292745</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:5">
@@ -3445,13 +3331,13 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="C132" s="0" t="n">
-        <x:v>116.20187</x:v>
+        <x:v>116.32828</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>39.94291</x:v>
+        <x:v>39.92688</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>10292746</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:5">
@@ -3462,13 +3348,13 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="C133" s="0" t="n">
-        <x:v>116.231</x:v>
+        <x:v>116.3039</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>39.95334</x:v>
+        <x:v>39.92049</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
-        <x:v>422</x:v>
+        <x:v>10292747</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:5">
@@ -3479,13 +3365,13 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="C134" s="0" t="n">
-        <x:v>116.2412</x:v>
+        <x:v>116.31487</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>39.94625</x:v>
+        <x:v>39.88714</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
-        <x:v>423</x:v>
+        <x:v>10292748</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:5">
@@ -3496,13 +3382,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="C135" s="0" t="n">
-        <x:v>116.25286</x:v>
+        <x:v>116.30395</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>39.95461</x:v>
+        <x:v>39.90156</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>10292749</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:5">
@@ -3513,13 +3399,13 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="C136" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.31294</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>39.95476</x:v>
+        <x:v>39.8874</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
-        <x:v>425</x:v>
+        <x:v>10292750</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:5">
@@ -3530,13 +3416,13 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
-        <x:v>116.25437</x:v>
+        <x:v>116.29364</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>39.95479</x:v>
+        <x:v>39.88522</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
-        <x:v>426</x:v>
+        <x:v>10292751</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:5">
@@ -3547,13 +3433,13 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
-        <x:v>116.25437</x:v>
+        <x:v>116.31445</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>39.95479</x:v>
+        <x:v>39.92686</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
-        <x:v>427</x:v>
+        <x:v>10292752</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:5">
@@ -3564,13 +3450,13 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
-        <x:v>116.25445</x:v>
+        <x:v>116.29368</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>39.95482</x:v>
+        <x:v>39.88524</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
-        <x:v>428</x:v>
+        <x:v>10292753</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:5">
@@ -3581,13 +3467,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
-        <x:v>116.2544</x:v>
+        <x:v>116.34025</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>39.95483</x:v>
+        <x:v>39.92234</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
-        <x:v>429</x:v>
+        <x:v>10292754</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:5">
@@ -3598,13 +3484,13 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.2986</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>39.95482</x:v>
+        <x:v>39.88107</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
-        <x:v>430</x:v>
+        <x:v>10292755</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:5">
@@ -3615,13 +3501,13 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
-        <x:v>116.25438</x:v>
+        <x:v>116.31511</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>39.95476</x:v>
+        <x:v>39.88872</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
-        <x:v>431</x:v>
+        <x:v>10292756</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:5">
@@ -3632,13 +3518,13 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
-        <x:v>116.25438</x:v>
+        <x:v>116.2968</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>39.95479</x:v>
+        <x:v>39.88537</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
-        <x:v>432</x:v>
+        <x:v>10292757</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:5">
@@ -3649,13 +3535,13 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>116.25443</x:v>
+        <x:v>116.31507</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>39.95483</x:v>
+        <x:v>39.88625</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
-        <x:v>433</x:v>
+        <x:v>10292758</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:5">
@@ -3666,13 +3552,13 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
-        <x:v>116.25445</x:v>
+        <x:v>116.29373</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>39.95486</x:v>
+        <x:v>39.8852</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>10292759</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:5">
@@ -3683,13 +3569,13 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.29373</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>39.95486</x:v>
+        <x:v>39.8853</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
-        <x:v>435</x:v>
+        <x:v>10292760</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:5">
@@ -3700,13 +3586,13 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="C147" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.29371</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>39.95479</x:v>
+        <x:v>39.88526</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
-        <x:v>436</x:v>
+        <x:v>10292761</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:5">
@@ -3717,13 +3603,13 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="C148" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.31978</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>39.95483</x:v>
+        <x:v>39.89549</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
-        <x:v>437</x:v>
+        <x:v>10292762</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:5">
@@ -3734,13 +3620,13 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="C149" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.29676</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>39.95484</x:v>
+        <x:v>39.88532</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
-        <x:v>438</x:v>
+        <x:v>10292763</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:5">
@@ -3751,13 +3637,13 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="C150" s="0" t="n">
-        <x:v>116.25437</x:v>
+        <x:v>116.30875</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.89551</x:v>
       </x:c>
       <x:c r="E150" s="0" t="n">
-        <x:v>439</x:v>
+        <x:v>10292764</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:5">
@@ -3768,13 +3654,13 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="C151" s="0" t="n">
-        <x:v>116.25437</x:v>
+        <x:v>116.31485</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.89599</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
-        <x:v>440</x:v>
+        <x:v>10292765</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:5">
@@ -3785,13 +3671,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="C152" s="0" t="n">
-        <x:v>116.25445</x:v>
+        <x:v>116.20228</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>39.95478</x:v>
+        <x:v>39.90752</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
-        <x:v>441</x:v>
+        <x:v>10292766</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:5">
@@ -3802,13 +3688,13 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="C153" s="0" t="n">
-        <x:v>116.25439</x:v>
+        <x:v>116.17914</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>39.95476</x:v>
+        <x:v>39.92713</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
-        <x:v>442</x:v>
+        <x:v>10292767</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:5">
@@ -3819,13 +3705,13 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="C154" s="0" t="n">
-        <x:v>116.25441</x:v>
+        <x:v>116.19824</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.90954</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
-        <x:v>443</x:v>
+        <x:v>10292768</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:5">
@@ -3836,13 +3722,13 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="C155" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.23009</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>39.95482</x:v>
+        <x:v>39.90625</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
-        <x:v>444</x:v>
+        <x:v>10292769</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:5">
@@ -3853,13 +3739,13 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="C156" s="0" t="n">
-        <x:v>116.25442</x:v>
+        <x:v>116.25437</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>10292770</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:5">
@@ -3870,13 +3756,13 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
-        <x:v>116.25443</x:v>
+        <x:v>116.20044</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>39.95484</x:v>
+        <x:v>39.91295</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
-        <x:v>446</x:v>
+        <x:v>10292771</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:5">
@@ -3887,13 +3773,13 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
-        <x:v>116.25446</x:v>
+        <x:v>116.231</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>39.95479</x:v>
+        <x:v>39.95334</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
-        <x:v>447</x:v>
+        <x:v>10292772</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:5">
@@ -3904,13 +3790,13 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
-        <x:v>116.25448</x:v>
+        <x:v>116.26947</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>39.95475</x:v>
+        <x:v>39.90629</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
-        <x:v>448</x:v>
+        <x:v>10292773</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:5">
@@ -3921,13 +3807,13 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
-        <x:v>116.25435</x:v>
+        <x:v>116.3053</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.89663</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
-        <x:v>449</x:v>
+        <x:v>10292774</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:5">
@@ -3938,13 +3824,13 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
-        <x:v>116.25445</x:v>
+        <x:v>116.19359</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.93623</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>10292775</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:5">
@@ -3955,13 +3841,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
-        <x:v>116.25438</x:v>
+        <x:v>116.25286</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>39.95487</x:v>
+        <x:v>39.95461</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
-        <x:v>451</x:v>
+        <x:v>10292776</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:5">
@@ -3972,13 +3858,13 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
-        <x:v>116.25449</x:v>
+        <x:v>116.17663</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>39.95481</x:v>
+        <x:v>39.92724</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
-        <x:v>452</x:v>
+        <x:v>10292777</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:5">
@@ -3989,13 +3875,13 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
-        <x:v>116.25443</x:v>
+        <x:v>116.18553</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>39.95474</x:v>
+        <x:v>39.92783</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
-        <x:v>453</x:v>
+        <x:v>10292778</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:5">
@@ -4006,13 +3892,13 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>116.25438</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>39.95482</x:v>
+        <x:v>39.95476</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
-        <x:v>454</x:v>
+        <x:v>10292779</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:5">
@@ -4023,13 +3909,13 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
-        <x:v>116.25437</x:v>
+        <x:v>116.192</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.92964</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
-        <x:v>455</x:v>
+        <x:v>10292780</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:5">
@@ -4040,13 +3926,13 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="C167" s="0" t="n">
-        <x:v>116.25447</x:v>
+        <x:v>116.2412</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>39.95477</x:v>
+        <x:v>39.94625</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
-        <x:v>456</x:v>
+        <x:v>10292781</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:5">
@@ -4057,13 +3943,13 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="C168" s="0" t="n">
-        <x:v>116.25441</x:v>
+        <x:v>116.25437</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>39.95474</x:v>
+        <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
-        <x:v>457</x:v>
+        <x:v>10292782</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:5">
@@ -4074,13 +3960,13 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
-        <x:v>116.25443</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>39.95475</x:v>
+        <x:v>39.95483</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
-        <x:v>458</x:v>
+        <x:v>10292783</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:5">
@@ -4091,13 +3977,13 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
-        <x:v>116.25443</x:v>
+        <x:v>116.29367</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>39.95477</x:v>
+        <x:v>39.88523</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>10292784</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:5">
@@ -4108,13 +3994,13 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="C171" s="0" t="n">
-        <x:v>116.2544</x:v>
+        <x:v>116.20187</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>39.95474</x:v>
+        <x:v>39.94291</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>10292785</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:5">
@@ -4125,13 +4011,13 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="C172" s="0" t="n">
-        <x:v>116.25444</x:v>
+        <x:v>116.25438</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>39.95474</x:v>
+        <x:v>39.95476</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
-        <x:v>461</x:v>
+        <x:v>10292786</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:5">
@@ -4145,10 +4031,10 @@
         <x:v>116.25445</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>39.95474</x:v>
+        <x:v>39.95486</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
-        <x:v>462</x:v>
+        <x:v>10292787</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:5">
@@ -4159,13 +4045,13 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="C174" s="0" t="n">
-        <x:v>116.25439</x:v>
+        <x:v>116.2544</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>39.95478</x:v>
+        <x:v>39.95483</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
-        <x:v>463</x:v>
+        <x:v>10292788</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:5">
@@ -4176,13 +4062,13 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="C175" s="0" t="n">
-        <x:v>116.2544</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>39.95476</x:v>
+        <x:v>39.95482</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
-        <x:v>464</x:v>
+        <x:v>10292789</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:5">
@@ -4193,13 +4079,13 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="C176" s="0" t="n">
-        <x:v>116.25434</x:v>
+        <x:v>116.25438</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>39.95478</x:v>
+        <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
-        <x:v>465</x:v>
+        <x:v>10292790</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:5">
@@ -4210,13 +4096,13 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="C177" s="0" t="n">
-        <x:v>116.25434</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
         <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
-        <x:v>466</x:v>
+        <x:v>10292791</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:5">
@@ -4227,13 +4113,13 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="C178" s="0" t="n">
-        <x:v>116.25441</x:v>
+        <x:v>116.25445</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>39.9548</x:v>
+        <x:v>39.95482</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
-        <x:v>467</x:v>
+        <x:v>10292792</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:5">
@@ -4244,13 +4130,13 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="C179" s="0" t="n">
-        <x:v>116.25445</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>39.95482</x:v>
+        <x:v>39.95484</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
-        <x:v>468</x:v>
+        <x:v>10292793</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:5">
@@ -4261,13 +4147,13 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="C180" s="0" t="n">
-        <x:v>116.2544</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>39.95484</x:v>
+        <x:v>39.95482</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
-        <x:v>469</x:v>
+        <x:v>10292794</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:5">
@@ -4278,13 +4164,13 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
-        <x:v>116.25446</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>39.95479</x:v>
+        <x:v>39.95486</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>10292795</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:5">
@@ -4295,13 +4181,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
-        <x:v>116.25441</x:v>
+        <x:v>116.25445</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>39.95483</x:v>
+        <x:v>39.95478</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
-        <x:v>471</x:v>
+        <x:v>10292796</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:5">
@@ -4312,13 +4198,13 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="C183" s="0" t="n">
-        <x:v>116.25439</x:v>
+        <x:v>116.25443</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>39.95476</x:v>
+        <x:v>39.95483</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
-        <x:v>472</x:v>
+        <x:v>10292797</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:5">
@@ -4329,13 +4215,13 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C184" s="0" t="n">
-        <x:v>116.25575</x:v>
+        <x:v>116.25441</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>39.94911</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
-        <x:v>473</x:v>
+        <x:v>10292798</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:5">
@@ -4346,13 +4232,13 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="C185" s="0" t="n">
-        <x:v>116.25125</x:v>
+        <x:v>116.25437</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>39.94568</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
-        <x:v>474</x:v>
+        <x:v>10292799</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:5">
@@ -4363,13 +4249,13 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="C186" s="0" t="n">
-        <x:v>116.26015</x:v>
+        <x:v>116.25445</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>39.9456</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
-        <x:v>475</x:v>
+        <x:v>10292800</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:5">
@@ -4380,13 +4266,13 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="C187" s="0" t="n">
-        <x:v>116.26871</x:v>
+        <x:v>116.25443</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>39.94948</x:v>
+        <x:v>39.95484</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
-        <x:v>476</x:v>
+        <x:v>10292801</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:5">
@@ -4397,13 +4283,13 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
-        <x:v>116.26296</x:v>
+        <x:v>116.25442</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>39.95034</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
-        <x:v>477</x:v>
+        <x:v>10292802</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:5">
@@ -4414,13 +4300,13 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
-        <x:v>116.26798</x:v>
+        <x:v>116.25446</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>39.94037</x:v>
+        <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
-        <x:v>478</x:v>
+        <x:v>10292803</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:5">
@@ -4431,13 +4317,13 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="C190" s="0" t="n">
-        <x:v>116.26798</x:v>
+        <x:v>116.25441</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>39.94037</x:v>
+        <x:v>39.95474</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
-        <x:v>479</x:v>
+        <x:v>10292804</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:5">
@@ -4448,13 +4334,13 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
-        <x:v>116.27307</x:v>
+        <x:v>116.25443</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>39.9229</x:v>
+        <x:v>39.95475</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>10292805</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:5">
@@ -4465,13 +4351,13 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="C192" s="0" t="n">
-        <x:v>116.28219</x:v>
+        <x:v>116.25443</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>39.9228</x:v>
+        <x:v>39.95474</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>10292806</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:5">
@@ -4482,13 +4368,13 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C193" s="0" t="n">
-        <x:v>116.29833</x:v>
+        <x:v>116.25449</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>39.92248</x:v>
+        <x:v>39.95481</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>10292807</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:5">
@@ -4499,13 +4385,13 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="C194" s="0" t="n">
-        <x:v>116.30388</x:v>
+        <x:v>116.25448</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>39.91532</x:v>
+        <x:v>39.95475</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
-        <x:v>483</x:v>
+        <x:v>10292808</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:5">
@@ -4516,13 +4402,13 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="C195" s="0" t="n">
-        <x:v>116.30389</x:v>
+        <x:v>116.25438</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>39.91351</x:v>
+        <x:v>39.95482</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>10292809</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:5">
@@ -4533,13 +4419,13 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="C196" s="0" t="n">
-        <x:v>116.30391</x:v>
+        <x:v>116.25439</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>39.90948</x:v>
+        <x:v>39.95476</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
-        <x:v>485</x:v>
+        <x:v>10292810</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:5">
@@ -4550,13 +4436,13 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="C197" s="0" t="n">
-        <x:v>116.31209</x:v>
+        <x:v>116.25437</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>39.90614</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
-        <x:v>486</x:v>
+        <x:v>10292811</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:5">
@@ -4567,13 +4453,13 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="C198" s="0" t="n">
-        <x:v>116.357</x:v>
+        <x:v>116.25438</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>39.90525</x:v>
+        <x:v>39.95487</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
-        <x:v>487</x:v>
+        <x:v>10292812</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:5">
@@ -4584,13 +4470,13 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="C199" s="0" t="n">
-        <x:v>116.36082</x:v>
+        <x:v>116.25447</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>39.91514</x:v>
+        <x:v>39.95477</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
-        <x:v>488</x:v>
+        <x:v>10292813</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:5">
@@ -4601,13 +4487,13 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="C200" s="0" t="n">
-        <x:v>116.35694</x:v>
+        <x:v>116.25435</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>39.90963</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
-        <x:v>489</x:v>
+        <x:v>10292814</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:5">
@@ -4618,13 +4504,13 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
-        <x:v>116.35694</x:v>
+        <x:v>116.25437</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>39.90945</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
-        <x:v>490</x:v>
+        <x:v>10292815</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:5">
@@ -4635,13 +4521,13 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
-        <x:v>116.35703</x:v>
+        <x:v>116.2544</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>39.90618</x:v>
+        <x:v>39.95474</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
-        <x:v>491</x:v>
+        <x:v>10292816</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:5">
@@ -4652,13 +4538,13 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="C203" s="0" t="n">
-        <x:v>116.35705</x:v>
+        <x:v>116.25439</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>39.89935</x:v>
+        <x:v>39.95478</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
-        <x:v>492</x:v>
+        <x:v>10292817</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:5">
@@ -4669,13 +4555,13 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="C204" s="0" t="n">
-        <x:v>116.35703</x:v>
+        <x:v>116.25434</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>39.89935</x:v>
+        <x:v>39.95478</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
-        <x:v>493</x:v>
+        <x:v>10292818</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:5">
@@ -4686,13 +4572,13 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="C205" s="0" t="n">
-        <x:v>116.31862</x:v>
+        <x:v>116.25444</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>39.89835</x:v>
+        <x:v>39.95474</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
-        <x:v>494</x:v>
+        <x:v>10292819</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:5">
@@ -4703,13 +4589,13 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="C206" s="0" t="n">
-        <x:v>116.31755</x:v>
+        <x:v>116.25445</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>39.9009</x:v>
+        <x:v>39.95474</x:v>
       </x:c>
       <x:c r="E206" s="0" t="n">
-        <x:v>495</x:v>
+        <x:v>10292820</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:5">
@@ -4720,13 +4606,13 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="C207" s="0" t="n">
-        <x:v>116.31175</x:v>
+        <x:v>116.25434</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>39.89595</x:v>
+        <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
-        <x:v>496</x:v>
+        <x:v>10292821</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:5">
@@ -4737,13 +4623,13 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="C208" s="0" t="n">
-        <x:v>116.30401</x:v>
+        <x:v>116.25443</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>39.89339</x:v>
+        <x:v>39.95477</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
-        <x:v>497</x:v>
+        <x:v>10292822</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:5">
@@ -4754,13 +4640,13 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="C209" s="0" t="n">
-        <x:v>116.30401</x:v>
+        <x:v>116.25441</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>39.89339</x:v>
+        <x:v>39.9548</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
-        <x:v>498</x:v>
+        <x:v>10292823</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:5">
@@ -4771,13 +4657,13 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="C210" s="0" t="n">
-        <x:v>116.23012</x:v>
+        <x:v>116.25446</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>39.85029</x:v>
+        <x:v>39.95479</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
-        <x:v>499</x:v>
+        <x:v>10292824</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:5">
@@ -4788,13 +4674,13 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="C211" s="0" t="n">
-        <x:v>116.20832</x:v>
+        <x:v>116.2544</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>39.84214</x:v>
+        <x:v>39.95484</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>10292825</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:5">
@@ -4805,13 +4691,13 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="C212" s="0" t="n">
-        <x:v>116.19641</x:v>
+        <x:v>116.2544</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>39.80448</x:v>
+        <x:v>39.95476</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
-        <x:v>501</x:v>
+        <x:v>10292826</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:5">
@@ -4822,13 +4708,13 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="C213" s="0" t="n">
-        <x:v>116.16155</x:v>
+        <x:v>116.25445</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>39.77729</x:v>
+        <x:v>39.95482</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
-        <x:v>502</x:v>
+        <x:v>10292827</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:5">
@@ -4839,13 +4725,13 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="C214" s="0" t="n">
-        <x:v>116.13952</x:v>
+        <x:v>116.25441</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>39.75633</x:v>
+        <x:v>39.95483</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>10292828</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:5">
@@ -4856,13 +4742,13 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="C215" s="0" t="n">
-        <x:v>116.13578</x:v>
+        <x:v>116.25439</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>39.73743</x:v>
+        <x:v>39.95476</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
-        <x:v>504</x:v>
+        <x:v>10292829</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:5">
@@ -4873,13 +4759,13 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="C216" s="0" t="n">
-        <x:v>116.13576</x:v>
+        <x:v>116.25575</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>39.73035</x:v>
+        <x:v>39.94911</x:v>
       </x:c>
       <x:c r="E216" s="0" t="n">
-        <x:v>505</x:v>
+        <x:v>10292830</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:5">
@@ -4890,13 +4776,13 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="C217" s="0" t="n">
-        <x:v>116.13575</x:v>
+        <x:v>116.25125</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
-        <x:v>39.72904</x:v>
+        <x:v>39.94568</x:v>
       </x:c>
       <x:c r="E217" s="0" t="n">
-        <x:v>506</x:v>
+        <x:v>10292831</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:5">
@@ -4907,13 +4793,13 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="C218" s="0" t="n">
-        <x:v>116.14182</x:v>
+        <x:v>116.26015</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>39.72187</x:v>
+        <x:v>39.9456</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
-        <x:v>507</x:v>
+        <x:v>10292832</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:5">
@@ -4924,13 +4810,13 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
-        <x:v>116.14431</x:v>
+        <x:v>116.27307</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>39.71446</x:v>
+        <x:v>39.9229</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
-        <x:v>508</x:v>
+        <x:v>10292833</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:5">
@@ -4941,13 +4827,13 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>116.14269</x:v>
+        <x:v>116.26871</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>39.69919</x:v>
+        <x:v>39.94948</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
-        <x:v>509</x:v>
+        <x:v>10292834</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:5">
@@ -4958,13 +4844,13 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>116.14234</x:v>
+        <x:v>116.30389</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>39.69446</x:v>
+        <x:v>39.91351</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
-        <x:v>510</x:v>
+        <x:v>10292835</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:5">
@@ -4975,13 +4861,13 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>116.14257</x:v>
+        <x:v>116.30388</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>39.69454</x:v>
+        <x:v>39.91532</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>10292836</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:5">
@@ -4992,13 +4878,13 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>116.14262</x:v>
+        <x:v>116.26296</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>39.69455</x:v>
+        <x:v>39.95034</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
-        <x:v>512</x:v>
+        <x:v>10292837</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:5">
@@ -5009,13 +4895,13 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
-        <x:v>116.16348</x:v>
+        <x:v>116.26798</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>39.67818</x:v>
+        <x:v>39.94037</x:v>
       </x:c>
       <x:c r="E224" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>10292838</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:5">
@@ -5026,13 +4912,13 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
-        <x:v>116.16557</x:v>
+        <x:v>116.26798</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>39.67944</x:v>
+        <x:v>39.94037</x:v>
       </x:c>
       <x:c r="E225" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>10292839</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:5">
@@ -5043,13 +4929,13 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
-        <x:v>116.16563</x:v>
+        <x:v>116.36082</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>39.67944</x:v>
+        <x:v>39.91514</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>10292840</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:5">
@@ -5060,13 +4946,13 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="C227" s="0" t="n">
-        <x:v>116.16549</x:v>
+        <x:v>116.28219</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>39.67943</x:v>
+        <x:v>39.9228</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
-        <x:v>516</x:v>
+        <x:v>10292841</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:5">
@@ -5077,13 +4963,13 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="C228" s="0" t="n">
-        <x:v>116.16566</x:v>
+        <x:v>116.31209</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>39.6794</x:v>
+        <x:v>39.90614</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>10292842</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:5">
@@ -5094,13 +4980,13 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="C229" s="0" t="n">
-        <x:v>116.16564</x:v>
+        <x:v>116.35694</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>39.67944</x:v>
+        <x:v>39.90945</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>10292843</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:5">
@@ -5111,13 +4997,13 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="C230" s="0" t="n">
-        <x:v>116.16564</x:v>
+        <x:v>116.35705</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>39.67944</x:v>
+        <x:v>39.89935</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>10292844</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:5">
@@ -5128,13 +5014,13 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="C231" s="0" t="n">
-        <x:v>116.16568</x:v>
+        <x:v>116.29833</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>39.67932</x:v>
+        <x:v>39.92248</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
-        <x:v>520</x:v>
+        <x:v>10292845</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:5">
@@ -5145,13 +5031,13 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="C232" s="0" t="n">
-        <x:v>116.16558</x:v>
+        <x:v>116.357</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>39.67937</x:v>
+        <x:v>39.90525</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
-        <x:v>521</x:v>
+        <x:v>10292847</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:5">
@@ -5162,13 +5048,13 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="C233" s="0" t="n">
-        <x:v>116.16571</x:v>
+        <x:v>116.30391</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>39.67939</x:v>
+        <x:v>39.90948</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
-        <x:v>522</x:v>
+        <x:v>10292850</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:5">
@@ -5179,13 +5065,13 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
-        <x:v>116.16567</x:v>
+        <x:v>116.35703</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>39.67935</x:v>
+        <x:v>39.89935</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
-        <x:v>523</x:v>
+        <x:v>10292851</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:5">
@@ -5196,13 +5082,13 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="C235" s="0" t="n">
-        <x:v>116.16556</x:v>
+        <x:v>116.35703</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>39.67942</x:v>
+        <x:v>39.90618</x:v>
       </x:c>
       <x:c r="E235" s="0" t="n">
-        <x:v>524</x:v>
+        <x:v>10292854</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:5">
@@ -5213,659 +5099,13 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="C236" s="0" t="n">
-        <x:v>116.16564</x:v>
+        <x:v>116.35694</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>39.67941</x:v>
+        <x:v>39.90963</x:v>
       </x:c>
       <x:c r="E236" s="0" t="n">
-        <x:v>525</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="237" spans="1:5">
-      <x:c r="A237" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="C237" s="0" t="n">
-        <x:v>116.16562</x:v>
-      </x:c>
-      <x:c r="D237" s="0" t="n">
-        <x:v>39.67937</x:v>
-      </x:c>
-      <x:c r="E237" s="0" t="n">
-        <x:v>526</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="238" spans="1:5">
-      <x:c r="A238" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="C238" s="0" t="n">
-        <x:v>116.16557</x:v>
-      </x:c>
-      <x:c r="D238" s="0" t="n">
-        <x:v>39.67942</x:v>
-      </x:c>
-      <x:c r="E238" s="0" t="n">
-        <x:v>527</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="239" spans="1:5">
-      <x:c r="A239" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="C239" s="0" t="n">
-        <x:v>116.16567</x:v>
-      </x:c>
-      <x:c r="D239" s="0" t="n">
-        <x:v>39.67933</x:v>
-      </x:c>
-      <x:c r="E239" s="0" t="n">
-        <x:v>528</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="240" spans="1:5">
-      <x:c r="A240" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="C240" s="0" t="n">
-        <x:v>116.16568</x:v>
-      </x:c>
-      <x:c r="D240" s="0" t="n">
-        <x:v>39.67942</x:v>
-      </x:c>
-      <x:c r="E240" s="0" t="n">
-        <x:v>529</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="241" spans="1:5">
-      <x:c r="A241" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="C241" s="0" t="n">
-        <x:v>116.16234</x:v>
-      </x:c>
-      <x:c r="D241" s="0" t="n">
-        <x:v>39.67816</x:v>
-      </x:c>
-      <x:c r="E241" s="0" t="n">
-        <x:v>530</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="242" spans="1:5">
-      <x:c r="A242" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="C242" s="0" t="n">
-        <x:v>116.15598</x:v>
-      </x:c>
-      <x:c r="D242" s="0" t="n">
-        <x:v>39.68387</x:v>
-      </x:c>
-      <x:c r="E242" s="0" t="n">
-        <x:v>531</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="243" spans="1:5">
-      <x:c r="A243" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="C243" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D243" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E243" s="0" t="n">
-        <x:v>532</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="244" spans="1:5">
-      <x:c r="A244" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="C244" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D244" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E244" s="0" t="n">
-        <x:v>533</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="245" spans="1:5">
-      <x:c r="A245" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="C245" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D245" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E245" s="0" t="n">
-        <x:v>534</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="246" spans="1:5">
-      <x:c r="A246" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="C246" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D246" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E246" s="0" t="n">
-        <x:v>535</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="247" spans="1:5">
-      <x:c r="A247" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="C247" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D247" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E247" s="0" t="n">
-        <x:v>536</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="248" spans="1:5">
-      <x:c r="A248" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="C248" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D248" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E248" s="0" t="n">
-        <x:v>537</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="249" spans="1:5">
-      <x:c r="A249" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="C249" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D249" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E249" s="0" t="n">
-        <x:v>538</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="250" spans="1:5">
-      <x:c r="A250" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="C250" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D250" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E250" s="0" t="n">
-        <x:v>539</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="251" spans="1:5">
-      <x:c r="A251" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="C251" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D251" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E251" s="0" t="n">
-        <x:v>540</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="252" spans="1:5">
-      <x:c r="A252" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="C252" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D252" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E252" s="0" t="n">
-        <x:v>541</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="253" spans="1:5">
-      <x:c r="A253" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="C253" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D253" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E253" s="0" t="n">
-        <x:v>542</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="254" spans="1:5">
-      <x:c r="A254" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="C254" s="0" t="n">
-        <x:v>116.15576</x:v>
-      </x:c>
-      <x:c r="D254" s="0" t="n">
-        <x:v>39.68389</x:v>
-      </x:c>
-      <x:c r="E254" s="0" t="n">
-        <x:v>543</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="255" spans="1:5">
-      <x:c r="A255" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="C255" s="0" t="n">
-        <x:v>116.1564</x:v>
-      </x:c>
-      <x:c r="D255" s="0" t="n">
-        <x:v>39.68309</x:v>
-      </x:c>
-      <x:c r="E255" s="0" t="n">
-        <x:v>544</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="256" spans="1:5">
-      <x:c r="A256" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="C256" s="0" t="n">
-        <x:v>116.15459</x:v>
-      </x:c>
-      <x:c r="D256" s="0" t="n">
-        <x:v>39.69386</x:v>
-      </x:c>
-      <x:c r="E256" s="0" t="n">
-        <x:v>545</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="257" spans="1:5">
-      <x:c r="A257" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="C257" s="0" t="n">
-        <x:v>116.14254</x:v>
-      </x:c>
-      <x:c r="D257" s="0" t="n">
-        <x:v>39.69626</x:v>
-      </x:c>
-      <x:c r="E257" s="0" t="n">
-        <x:v>546</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="258" spans="1:5">
-      <x:c r="A258" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="C258" s="0" t="n">
-        <x:v>116.13595</x:v>
-      </x:c>
-      <x:c r="D258" s="0" t="n">
-        <x:v>39.72273</x:v>
-      </x:c>
-      <x:c r="E258" s="0" t="n">
-        <x:v>547</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="259" spans="1:5">
-      <x:c r="A259" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="C259" s="0" t="n">
-        <x:v>116.13607</x:v>
-      </x:c>
-      <x:c r="D259" s="0" t="n">
-        <x:v>39.75181</x:v>
-      </x:c>
-      <x:c r="E259" s="0" t="n">
-        <x:v>548</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="260" spans="1:5">
-      <x:c r="A260" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="C260" s="0" t="n">
-        <x:v>116.15091</x:v>
-      </x:c>
-      <x:c r="D260" s="0" t="n">
-        <x:v>39.76613</x:v>
-      </x:c>
-      <x:c r="E260" s="0" t="n">
-        <x:v>549</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="261" spans="1:5">
-      <x:c r="A261" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="C261" s="0" t="n">
-        <x:v>116.19523</x:v>
-      </x:c>
-      <x:c r="D261" s="0" t="n">
-        <x:v>39.79869</x:v>
-      </x:c>
-      <x:c r="E261" s="0" t="n">
-        <x:v>550</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="262" spans="1:5">
-      <x:c r="A262" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="C262" s="0" t="n">
-        <x:v>116.22621</x:v>
-      </x:c>
-      <x:c r="D262" s="0" t="n">
-        <x:v>39.84822</x:v>
-      </x:c>
-      <x:c r="E262" s="0" t="n">
-        <x:v>551</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="263" spans="1:5">
-      <x:c r="A263" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="C263" s="0" t="n">
-        <x:v>116.24505</x:v>
-      </x:c>
-      <x:c r="D263" s="0" t="n">
-        <x:v>39.86185</x:v>
-      </x:c>
-      <x:c r="E263" s="0" t="n">
-        <x:v>552</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="264" spans="1:5">
-      <x:c r="A264" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="C264" s="0" t="n">
-        <x:v>116.26972</x:v>
-      </x:c>
-      <x:c r="D264" s="0" t="n">
-        <x:v>39.88071</x:v>
-      </x:c>
-      <x:c r="E264" s="0" t="n">
-        <x:v>553</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="265" spans="1:5">
-      <x:c r="A265" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C265" s="0" t="n">
-        <x:v>116.31271</x:v>
-      </x:c>
-      <x:c r="D265" s="0" t="n">
-        <x:v>39.89578</x:v>
-      </x:c>
-      <x:c r="E265" s="0" t="n">
-        <x:v>554</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="266" spans="1:5">
-      <x:c r="A266" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="C266" s="0" t="n">
-        <x:v>116.33911</x:v>
-      </x:c>
-      <x:c r="D266" s="0" t="n">
-        <x:v>39.89646</x:v>
-      </x:c>
-      <x:c r="E266" s="0" t="n">
-        <x:v>555</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="267" spans="1:5">
-      <x:c r="A267" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="C267" s="0" t="n">
-        <x:v>116.35045</x:v>
-      </x:c>
-      <x:c r="D267" s="0" t="n">
-        <x:v>39.90733</x:v>
-      </x:c>
-      <x:c r="E267" s="0" t="n">
-        <x:v>556</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="268" spans="1:5">
-      <x:c r="A268" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="C268" s="0" t="n">
-        <x:v>116.35376</x:v>
-      </x:c>
-      <x:c r="D268" s="0" t="n">
-        <x:v>39.91638</x:v>
-      </x:c>
-      <x:c r="E268" s="0" t="n">
-        <x:v>557</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="269" spans="1:5">
-      <x:c r="A269" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="C269" s="0" t="n">
-        <x:v>116.35389</x:v>
-      </x:c>
-      <x:c r="D269" s="0" t="n">
-        <x:v>39.9201</x:v>
-      </x:c>
-      <x:c r="E269" s="0" t="n">
-        <x:v>558</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="270" spans="1:5">
-      <x:c r="A270" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="C270" s="0" t="n">
-        <x:v>116.35723</x:v>
-      </x:c>
-      <x:c r="D270" s="0" t="n">
-        <x:v>39.91348</x:v>
-      </x:c>
-      <x:c r="E270" s="0" t="n">
-        <x:v>559</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="271" spans="1:5">
-      <x:c r="A271" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="C271" s="0" t="n">
-        <x:v>116.35722</x:v>
-      </x:c>
-      <x:c r="D271" s="0" t="n">
-        <x:v>39.91354</x:v>
-      </x:c>
-      <x:c r="E271" s="0" t="n">
-        <x:v>560</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="272" spans="1:5">
-      <x:c r="A272" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="C272" s="0" t="n">
-        <x:v>116.35707</x:v>
-      </x:c>
-      <x:c r="D272" s="0" t="n">
-        <x:v>39.91369</x:v>
-      </x:c>
-      <x:c r="E272" s="0" t="n">
-        <x:v>561</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="273" spans="1:5">
-      <x:c r="A273" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="C273" s="0" t="n">
-        <x:v>116.35141</x:v>
-      </x:c>
-      <x:c r="D273" s="0" t="n">
-        <x:v>39.9075</x:v>
-      </x:c>
-      <x:c r="E273" s="0" t="n">
-        <x:v>562</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="274" spans="1:5">
-      <x:c r="A274" s="0" t="n">
-        <x:v>10133</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="C274" s="0" t="n">
-        <x:v>116.35397</x:v>
-      </x:c>
-      <x:c r="D274" s="0" t="n">
-        <x:v>39.91243</x:v>
-      </x:c>
-      <x:c r="E274" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>10292858</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/utils/trajectories_10133_2008-02-04.xlsx
+++ b/src/utils/trajectories_10133_2008-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240" count="240">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222" count="222">
   <x:si>
     <x:t>taxi_id</x:t>
   </x:si>
@@ -31,709 +31,655 @@
     <x:t>id</x:t>
   </x:si>
   <x:si>
-    <x:t>Sun Feb 03 2008 19:33:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:03:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:01:52 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:43:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:53:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:23:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:13:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:03:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:33:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 19:13:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:06:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:23:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:53:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:36:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:23:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:03:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:32:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:33:22 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:13:16 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:31:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:18:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 20:33:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 23:25:00 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:13:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:36:27 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:46:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 21:43:25 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 23:45:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 23:52:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:11:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:02:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:07:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 23:35:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:46:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:21:30 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:50:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 23:57:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Feb 03 2008 23:55:09 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:21:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:15:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:45:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:19:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:16:14 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:05:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:29:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:31:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:31:19 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:36:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 02:42:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 00:16:28 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 02:37:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 02:46:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:55:42 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:42:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:00:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 02:44:37 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 07:59:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:09:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:30:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:39:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:05:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:19:37 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:15:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:49:47 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:10:47 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:51:00 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:25:52 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:35:55 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:29:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 01:26:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:56:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:20:50 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:09:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:47:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:13:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:37:47 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:00:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:30:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:59:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:08:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:56:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:40:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:03:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:28:11 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:03:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:32:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:50:07 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:32:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 09:42:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:42:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:00:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:45:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:10:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:52:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:48:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:12:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:20:50 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:43:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:25:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:15:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:02:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 10:38:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 08:40:57 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:05:45 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:25:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:30:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:32:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:48:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:42:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:58:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:53:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:40:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:37:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:08:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:28:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 11:53:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:03:40 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:03:04 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:47:24 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:28:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:13:09 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:33:35 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:43:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:57:27 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:48:40 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:07:30 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:17:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:38:37 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:16:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 12:18:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:11:27 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:06:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:36:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:01:24 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:27:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:26:32 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:21:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:51:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:37:40 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:47:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:56:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:21:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:38:00 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:26:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:17:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:08:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:27:56 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:56:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:07:50 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:57:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:48:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:01:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:36:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:41:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:06:16 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:46:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:58:06 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:08:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:48:23 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 13:31:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 14:51:11 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:21:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:38:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:16:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:18:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:26:23 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:46:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:11:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:51:31 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:08:29 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:41:28 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:58:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:36:26 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:06:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:56:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:28:36 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:16:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:11:38 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:18:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:51:51 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:56:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:38:39 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:36:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:21:41 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:41:48 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:01:34 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 15:56:33 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:31:44 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:48:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:26:43 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:46:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:01:54 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:11:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:18:53 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:06:56 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:08:49 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:22:01 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 16:58:46 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:27:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:37:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:32:03 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:16:59 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:28:55 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:38:58 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:42:07 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:47:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:49:02 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:52:10 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:07:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:57:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:19:12 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:17:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 17:59:05 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:02:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:02:13 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:44:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:09:08 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:29:15 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:49:21 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:59:22 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:12:17 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:39:18 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:22:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:59:25 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:54:20 GMT-0500 (hora estándar de Perú)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Feb 04 2008 18:49:19 GMT-0500 (hora estándar de Perú)</x:t>
+    <x:t>2008-02-04T00:33:38.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T00:03:29.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:01:52.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T00:43:41.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T00:53:44.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T00:23:35.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:13:51.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:03:48.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T00:13:32.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:06:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:23:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:53:10.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:36:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:23:20.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:03:13.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:32:51.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:33:22.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:13:16.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:31:26.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:18:34.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T01:33:58.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T04:25:00.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:13:33.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:36:27.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:46:31.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T02:43:25.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T04:45:05.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T04:52:32.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:11:26.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:02:02.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:07:04.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T04:35:02.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:46:39.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:21:30.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:50:41.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T04:57:34.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T04:55:09.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:21:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:15:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:45:39.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:19:02.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:16:14.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:05:12.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:29:06.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:31:19.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:42:17.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:36:20.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T07:42:45.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T05:16:28.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T07:37:44.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T07:46:21.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T12:55:42.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:00:43.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T07:44:37.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T12:59:31.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:09:34.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:30:53.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:39:44.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:05:45.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:19:37.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:15:48.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:49:47.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:10:47.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:51:00.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:25:52.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:35:55.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:29:41.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T06:26:17.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:56:02.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:20:50.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:09:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:47:51.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:13:18.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:37:47.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:00:10.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:30:01.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:59:51.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:08:17.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:40:04.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:03:18.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:28:11.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:03:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:32:34.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:50:07.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T14:42:49.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:42:38.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:00:43.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:45:58.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:10:46.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:52:41.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:48:35.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:12:48.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:20:50.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:43:33.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:25:51.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:15:48.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:02:44.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T15:38:32.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T13:40:57.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:05:45.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:30:53.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:32:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:48:35.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:42:58.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:58:38.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:53:01.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:40:05.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:37:21.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:08:41.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:28:33.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T16:53:36.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:03:40.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:03:04.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:47:24.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:13:09.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:33:35.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:43:38.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:57:27.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:48:40.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:07:30.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:17:33.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:38:37.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:16:29.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T17:18:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:11:27.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:06:26.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:36:36.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:01:24.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:27:36.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:26:32.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:21:31.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:51:10.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:37:40.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:47:43.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:56:12.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:21:53.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:38:00.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:26:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:17:53.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:08:10.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:27:56.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:56:13.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:07:50.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:57:46.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:48:03.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:01:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:36:06.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:41:08.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:06:16.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:46:10.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:58:06.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:48:23.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T18:31:34.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T19:51:11.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:21:21.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:38:20.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:16:20.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:18:13.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:26:23.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:46:29.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:11:18.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:51:31.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:08:29.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:41:28.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:58:26.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:36:26.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:06:36.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T20:56:33.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:28:36.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:16:39.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:11:38.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:18:33.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:51:51.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:56:53.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:38:39.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:36:46.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:21:41.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:41:48.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:01:34.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:31:44.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:48:43.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:26:43.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:46:49.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:01:54.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:11:58.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:18:53.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:06:56.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:08:49.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:22:01.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T21:58:46.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:27:03.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:37:05.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:32:03.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:16:59.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:28:55.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:38:58.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:42:07.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:47:08.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:49:02.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:52:10.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:07:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:57:12.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:19:12.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:17:18.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T22:59:05.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:02:13.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:44:17.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:09:08.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:29:15.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:49:21.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:59:22.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:12:17.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:39:18.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:22:20.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:59:25.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:54:20.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008-02-04T23:49:19.000Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1254,7 +1200,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>116.47113</x:v>
@@ -1271,7 +1217,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
         <x:v>116.42822</x:v>
@@ -1288,7 +1234,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
         <x:v>116.4966</x:v>
@@ -1305,7 +1251,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>116.45005</x:v>
@@ -1322,7 +1268,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
         <x:v>116.37268</x:v>
@@ -1339,7 +1285,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
         <x:v>116.40458</x:v>
@@ -1356,7 +1302,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
         <x:v>116.278</x:v>
@@ -1373,7 +1319,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
         <x:v>116.34882</x:v>
@@ -1390,7 +1336,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
         <x:v>116.41121</x:v>
@@ -1407,7 +1353,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
         <x:v>116.2809</x:v>
@@ -1424,7 +1370,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
         <x:v>116.29624</x:v>
@@ -1441,7 +1387,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
         <x:v>116.27744</x:v>
@@ -1458,7 +1404,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
         <x:v>116.28618</x:v>
@@ -1475,7 +1421,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
         <x:v>116.40846</x:v>
@@ -1492,7 +1438,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>116.33167</x:v>
@@ -1509,7 +1455,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
         <x:v>116.29541</x:v>
@@ -1526,7 +1472,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>116.28637</x:v>
@@ -1543,7 +1489,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>116.2783</x:v>
@@ -1560,7 +1506,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
         <x:v>116.2694</x:v>
@@ -1577,7 +1523,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
         <x:v>116.46057</x:v>
@@ -1594,7 +1540,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
         <x:v>116.5046</x:v>
@@ -1611,7 +1557,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
         <x:v>116.47177</x:v>
@@ -1628,7 +1574,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
         <x:v>116.50194</x:v>
@@ -1645,7 +1591,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
         <x:v>116.48449</x:v>
@@ -1662,7 +1608,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
         <x:v>116.39308</x:v>
@@ -1679,7 +1625,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
         <x:v>116.30911</x:v>
@@ -1696,7 +1642,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
         <x:v>116.42116</x:v>
@@ -1713,7 +1659,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
         <x:v>116.2583</x:v>
@@ -1730,7 +1676,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
         <x:v>116.49658</x:v>
@@ -1747,7 +1693,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
         <x:v>116.50464</x:v>
@@ -1764,7 +1710,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
         <x:v>116.14118</x:v>
@@ -1781,7 +1727,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
         <x:v>116.46911</x:v>
@@ -1798,7 +1744,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
         <x:v>116.31288</x:v>
@@ -1815,7 +1761,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
         <x:v>116.14111</x:v>
@@ -1832,7 +1778,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
         <x:v>116.14127</x:v>
@@ -1849,7 +1795,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
         <x:v>116.49648</x:v>
@@ -1866,7 +1812,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
         <x:v>116.14436</x:v>
@@ -1883,7 +1829,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
         <x:v>116.14361</x:v>
@@ -1900,7 +1846,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -1917,7 +1863,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -1934,7 +1880,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -1951,7 +1897,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -1968,7 +1914,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
         <x:v>116.14361</x:v>
@@ -1985,7 +1931,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
         <x:v>116.14139</x:v>
@@ -2002,7 +1948,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -2019,7 +1965,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -2036,7 +1982,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -2053,7 +1999,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -2070,7 +2016,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
         <x:v>116.14474</x:v>
@@ -2087,7 +2033,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
         <x:v>116.46323</x:v>
@@ -2104,7 +2050,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
         <x:v>116.14456</x:v>
@@ -2121,7 +2067,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -2138,7 +2084,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
         <x:v>116.15585</x:v>
@@ -2155,7 +2101,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
         <x:v>116.16558</x:v>
@@ -2172,7 +2118,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
         <x:v>116.14138</x:v>
@@ -2189,7 +2135,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
         <x:v>116.16562</x:v>
@@ -2206,7 +2152,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
         <x:v>116.15718</x:v>
@@ -2223,7 +2169,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
         <x:v>116.16562</x:v>
@@ -2240,7 +2186,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
         <x:v>116.16563</x:v>
@@ -2257,7 +2203,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
         <x:v>116.13586</x:v>
@@ -2274,7 +2220,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
         <x:v>116.19</x:v>
@@ -2291,7 +2237,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
         <x:v>116.1656</x:v>
@@ -2308,7 +2254,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
         <x:v>116.15831</x:v>
@@ -2325,7 +2271,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
         <x:v>116.16151</x:v>
@@ -2342,7 +2288,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
         <x:v>116.25857</x:v>
@@ -2359,7 +2305,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
         <x:v>116.16561</x:v>
@@ -2376,7 +2322,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
         <x:v>116.27261</x:v>
@@ -2393,7 +2339,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
         <x:v>116.14375</x:v>
@@ -2410,7 +2356,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
         <x:v>116.14062</x:v>
@@ -2427,7 +2373,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
         <x:v>116.13585</x:v>
@@ -2444,7 +2390,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
         <x:v>116.14362</x:v>
@@ -2461,7 +2407,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
         <x:v>116.30151</x:v>
@@ -2478,7 +2424,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
         <x:v>116.15296</x:v>
@@ -2495,7 +2441,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
         <x:v>116.30646</x:v>
@@ -2512,7 +2458,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
         <x:v>116.3468</x:v>
@@ -2529,7 +2475,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
         <x:v>116.31342</x:v>
@@ -2546,7 +2492,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
         <x:v>116.36498</x:v>
@@ -2563,7 +2509,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
         <x:v>116.37777</x:v>
@@ -2580,7 +2526,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
         <x:v>116.36817</x:v>
@@ -2597,7 +2543,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
         <x:v>116.30253</x:v>
@@ -2614,7 +2560,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
         <x:v>116.30519</x:v>
@@ -2631,7 +2577,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
         <x:v>116.30151</x:v>
@@ -2648,7 +2594,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
         <x:v>116.35584</x:v>
@@ -2665,7 +2611,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
         <x:v>116.38698</x:v>
@@ -2682,7 +2628,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
         <x:v>116.36791</x:v>
@@ -2699,7 +2645,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
         <x:v>116.30457</x:v>
@@ -2716,7 +2662,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C96" s="0" t="n">
         <x:v>116.38094</x:v>
@@ -2733,7 +2679,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C97" s="0" t="n">
         <x:v>116.34688</x:v>
@@ -2750,7 +2696,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
         <x:v>116.38094</x:v>
@@ -2767,7 +2713,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C99" s="0" t="n">
         <x:v>116.34691</x:v>
@@ -2784,7 +2730,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
         <x:v>116.39379</x:v>
@@ -2801,7 +2747,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
         <x:v>116.37859</x:v>
@@ -2818,7 +2764,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
         <x:v>116.21926</x:v>
@@ -2835,7 +2781,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C103" s="0" t="n">
         <x:v>116.37027</x:v>
@@ -2852,7 +2798,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C104" s="0" t="n">
         <x:v>116.39238</x:v>
@@ -2869,7 +2815,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C105" s="0" t="n">
         <x:v>116.39296</x:v>
@@ -2886,7 +2832,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C106" s="0" t="n">
         <x:v>116.36829</x:v>
@@ -2903,7 +2849,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C107" s="0" t="n">
         <x:v>116.36124</x:v>
@@ -2920,7 +2866,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C108" s="0" t="n">
         <x:v>116.39399</x:v>
@@ -2937,7 +2883,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C109" s="0" t="n">
         <x:v>116.35063</x:v>
@@ -2954,7 +2900,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C110" s="0" t="n">
         <x:v>116.36802</x:v>
@@ -2971,7 +2917,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C111" s="0" t="n">
         <x:v>116.37821</x:v>
@@ -2988,7 +2934,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C112" s="0" t="n">
         <x:v>116.40035</x:v>
@@ -3005,7 +2951,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C113" s="0" t="n">
         <x:v>116.19669</x:v>
@@ -3022,7 +2968,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
         <x:v>116.3753</x:v>
@@ -3039,7 +2985,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C115" s="0" t="n">
         <x:v>116.35063</x:v>
@@ -3056,7 +3002,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C116" s="0" t="n">
         <x:v>116.34998</x:v>
@@ -3073,7 +3019,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C117" s="0" t="n">
         <x:v>116.34974</x:v>
@@ -3090,7 +3036,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
         <x:v>116.37041</x:v>
@@ -3107,7 +3053,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
         <x:v>116.34897</x:v>
@@ -3124,7 +3070,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C120" s="0" t="n">
         <x:v>116.3497</x:v>
@@ -3141,7 +3087,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C121" s="0" t="n">
         <x:v>116.36549</x:v>
@@ -3158,7 +3104,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C122" s="0" t="n">
         <x:v>116.34934</x:v>
@@ -3175,7 +3121,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C123" s="0" t="n">
         <x:v>116.31624</x:v>
@@ -3192,7 +3138,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
         <x:v>116.34323</x:v>
@@ -3209,7 +3155,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C125" s="0" t="n">
         <x:v>116.33817</x:v>
@@ -3226,7 +3172,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C126" s="0" t="n">
         <x:v>116.36518</x:v>
@@ -3243,7 +3189,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C127" s="0" t="n">
         <x:v>116.33928</x:v>
@@ -3260,7 +3206,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C128" s="0" t="n">
         <x:v>116.34215</x:v>
@@ -3277,7 +3223,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C129" s="0" t="n">
         <x:v>116.30231</x:v>
@@ -3294,7 +3240,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C130" s="0" t="n">
         <x:v>116.33817</x:v>
@@ -3311,7 +3257,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C131" s="0" t="n">
         <x:v>116.34025</x:v>
@@ -3328,7 +3274,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C132" s="0" t="n">
         <x:v>116.32828</x:v>
@@ -3345,7 +3291,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C133" s="0" t="n">
         <x:v>116.3039</x:v>
@@ -3362,7 +3308,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C134" s="0" t="n">
         <x:v>116.31487</x:v>
@@ -3379,7 +3325,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C135" s="0" t="n">
         <x:v>116.30395</x:v>
@@ -3396,7 +3342,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C136" s="0" t="n">
         <x:v>116.31294</x:v>
@@ -3413,7 +3359,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
         <x:v>116.29364</x:v>
@@ -3430,7 +3376,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
         <x:v>116.31445</x:v>
@@ -3447,7 +3393,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
         <x:v>116.29368</x:v>
@@ -3464,7 +3410,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
         <x:v>116.34025</x:v>
@@ -3481,7 +3427,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
         <x:v>116.2986</x:v>
@@ -3498,7 +3444,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
         <x:v>116.31511</x:v>
@@ -3515,7 +3461,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
         <x:v>116.2968</x:v>
@@ -3532,7 +3478,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
         <x:v>116.31507</x:v>
@@ -3549,7 +3495,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
         <x:v>116.29373</x:v>
@@ -3566,7 +3512,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
         <x:v>116.29373</x:v>
@@ -3583,7 +3529,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C147" s="0" t="n">
         <x:v>116.29371</x:v>
@@ -3600,7 +3546,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C148" s="0" t="n">
         <x:v>116.31978</x:v>
@@ -3617,7 +3563,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C149" s="0" t="n">
         <x:v>116.29676</x:v>
@@ -3634,7 +3580,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C150" s="0" t="n">
         <x:v>116.30875</x:v>
@@ -3651,7 +3597,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C151" s="0" t="n">
         <x:v>116.31485</x:v>
@@ -3668,7 +3614,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C152" s="0" t="n">
         <x:v>116.20228</x:v>
@@ -3685,7 +3631,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C153" s="0" t="n">
         <x:v>116.17914</x:v>
@@ -3702,7 +3648,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C154" s="0" t="n">
         <x:v>116.19824</x:v>
@@ -3719,7 +3665,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C155" s="0" t="n">
         <x:v>116.23009</x:v>
@@ -3736,7 +3682,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C156" s="0" t="n">
         <x:v>116.25437</x:v>
@@ -3753,7 +3699,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
         <x:v>116.20044</x:v>
@@ -3770,7 +3716,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
         <x:v>116.231</x:v>
@@ -3787,7 +3733,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
         <x:v>116.26947</x:v>
@@ -3804,7 +3750,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
         <x:v>116.3053</x:v>
@@ -3821,7 +3767,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
         <x:v>116.19359</x:v>
@@ -3838,7 +3784,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
         <x:v>116.25286</x:v>
@@ -3855,7 +3801,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
         <x:v>116.17663</x:v>
@@ -3872,7 +3818,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
         <x:v>116.18553</x:v>
@@ -3889,7 +3835,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -3906,7 +3852,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
         <x:v>116.192</x:v>
@@ -3923,7 +3869,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C167" s="0" t="n">
         <x:v>116.2412</x:v>
@@ -3940,7 +3886,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C168" s="0" t="n">
         <x:v>116.25437</x:v>
@@ -3957,7 +3903,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -3974,7 +3920,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
         <x:v>116.29367</x:v>
@@ -3991,7 +3937,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C171" s="0" t="n">
         <x:v>116.20187</x:v>
@@ -4008,7 +3954,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C172" s="0" t="n">
         <x:v>116.25438</x:v>
@@ -4025,7 +3971,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C173" s="0" t="n">
         <x:v>116.25445</x:v>
@@ -4042,7 +3988,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C174" s="0" t="n">
         <x:v>116.2544</x:v>
@@ -4059,7 +4005,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C175" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -4076,7 +4022,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C176" s="0" t="n">
         <x:v>116.25438</x:v>
@@ -4093,7 +4039,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C177" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -4110,7 +4056,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C178" s="0" t="n">
         <x:v>116.25445</x:v>
@@ -4127,7 +4073,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C179" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -4144,7 +4090,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C180" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -4161,7 +4107,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -4178,7 +4124,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
         <x:v>116.25445</x:v>
@@ -4195,7 +4141,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C183" s="0" t="n">
         <x:v>116.25443</x:v>
@@ -4212,7 +4158,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C184" s="0" t="n">
         <x:v>116.25441</x:v>
@@ -4229,7 +4175,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C185" s="0" t="n">
         <x:v>116.25437</x:v>
@@ -4246,7 +4192,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C186" s="0" t="n">
         <x:v>116.25445</x:v>
@@ -4263,7 +4209,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C187" s="0" t="n">
         <x:v>116.25443</x:v>
@@ -4280,7 +4226,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
         <x:v>116.25442</x:v>
@@ -4297,7 +4243,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
         <x:v>116.25446</x:v>
@@ -4314,7 +4260,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C190" s="0" t="n">
         <x:v>116.25441</x:v>
@@ -4331,7 +4277,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
         <x:v>116.25443</x:v>
@@ -4348,7 +4294,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C192" s="0" t="n">
         <x:v>116.25443</x:v>
@@ -4365,7 +4311,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C193" s="0" t="n">
         <x:v>116.25449</x:v>
@@ -4382,7 +4328,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C194" s="0" t="n">
         <x:v>116.25448</x:v>
@@ -4399,7 +4345,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C195" s="0" t="n">
         <x:v>116.25438</x:v>
@@ -4416,7 +4362,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C196" s="0" t="n">
         <x:v>116.25439</x:v>
@@ -4433,7 +4379,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C197" s="0" t="n">
         <x:v>116.25437</x:v>
@@ -4450,7 +4396,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C198" s="0" t="n">
         <x:v>116.25438</x:v>
@@ -4467,7 +4413,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C199" s="0" t="n">
         <x:v>116.25447</x:v>
@@ -4484,7 +4430,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C200" s="0" t="n">
         <x:v>116.25435</x:v>
@@ -4501,7 +4447,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
         <x:v>116.25437</x:v>
@@ -4518,7 +4464,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
         <x:v>116.2544</x:v>
@@ -4535,7 +4481,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C203" s="0" t="n">
         <x:v>116.25439</x:v>
@@ -4552,7 +4498,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C204" s="0" t="n">
         <x:v>116.25434</x:v>
@@ -4569,7 +4515,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C205" s="0" t="n">
         <x:v>116.25444</x:v>
@@ -4586,7 +4532,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C206" s="0" t="n">
         <x:v>116.25445</x:v>
@@ -4603,7 +4549,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C207" s="0" t="n">
         <x:v>116.25434</x:v>
@@ -4620,7 +4566,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C208" s="0" t="n">
         <x:v>116.25443</x:v>
@@ -4637,7 +4583,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C209" s="0" t="n">
         <x:v>116.25441</x:v>
@@ -4654,7 +4600,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C210" s="0" t="n">
         <x:v>116.25446</x:v>
@@ -4671,7 +4617,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C211" s="0" t="n">
         <x:v>116.2544</x:v>
@@ -4688,7 +4634,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C212" s="0" t="n">
         <x:v>116.2544</x:v>
@@ -4705,7 +4651,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C213" s="0" t="n">
         <x:v>116.25445</x:v>
@@ -4722,7 +4668,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C214" s="0" t="n">
         <x:v>116.25441</x:v>
@@ -4739,7 +4685,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C215" s="0" t="n">
         <x:v>116.25439</x:v>
@@ -4756,7 +4702,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C216" s="0" t="n">
         <x:v>116.25575</x:v>
@@ -4773,7 +4719,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C217" s="0" t="n">
         <x:v>116.25125</x:v>
@@ -4790,7 +4736,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C218" s="0" t="n">
         <x:v>116.26015</x:v>
@@ -4807,7 +4753,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
         <x:v>116.27307</x:v>
@@ -4824,7 +4770,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
         <x:v>116.26871</x:v>
@@ -4841,7 +4787,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
         <x:v>116.30389</x:v>
@@ -4858,7 +4804,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
         <x:v>116.30388</x:v>
@@ -4875,7 +4821,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
         <x:v>116.26296</x:v>
@@ -4892,7 +4838,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
         <x:v>116.26798</x:v>
@@ -4909,7 +4855,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
         <x:v>116.26798</x:v>
@@ -4926,7 +4872,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
         <x:v>116.36082</x:v>
@@ -4943,7 +4889,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C227" s="0" t="n">
         <x:v>116.28219</x:v>
@@ -4960,7 +4906,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C228" s="0" t="n">
         <x:v>116.31209</x:v>
@@ -4977,7 +4923,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C229" s="0" t="n">
         <x:v>116.35694</x:v>
@@ -4994,7 +4940,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C230" s="0" t="n">
         <x:v>116.35705</x:v>
@@ -5011,7 +4957,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C231" s="0" t="n">
         <x:v>116.29833</x:v>
@@ -5028,7 +4974,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C232" s="0" t="n">
         <x:v>116.357</x:v>
@@ -5045,7 +4991,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C233" s="0" t="n">
         <x:v>116.30391</x:v>
@@ -5062,7 +5008,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
         <x:v>116.35703</x:v>
@@ -5079,7 +5025,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C235" s="0" t="n">
         <x:v>116.35703</x:v>
@@ -5096,7 +5042,7 @@
         <x:v>10133</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C236" s="0" t="n">
         <x:v>116.35694</x:v>
